--- a/IntensiveSampling_BC2018_Invertebrates_Interior_ANJul172020.xlsx
+++ b/IntensiveSampling_BC2018_Invertebrates_Interior_ANJul172020.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23114"/>
-  <workbookPr autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CFED59-1D75-45B6-862F-3D5BF6E49F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicangie\Documents\Ang\Projects_and_Samples\SOSTPRO\Surbers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23985" windowHeight="13260" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ClaireSheet2" sheetId="2" r:id="rId1"/>
@@ -16,7 +20,7 @@
     <sheet name="For_R" sheetId="11" r:id="rId6"/>
     <sheet name="SortedAbund" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="661">
   <si>
     <t>jh</t>
   </si>
@@ -2057,11 +2061,23 @@
   <si>
     <t>Total  Abund</t>
   </si>
+  <si>
+    <t>Hemiptera_unknown</t>
+  </si>
+  <si>
+    <t>Tenebrionidae_unknown</t>
+  </si>
+  <si>
+    <t>Sphaeriidae_unknown</t>
+  </si>
+  <si>
+    <t>Trichop.dam.juv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -3458,7 +3474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3493,7 +3509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3677,17 +3693,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="20" topLeftCell="CV21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
       <selection pane="bottomRight" activeCell="BS3" sqref="BS3"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -4027,7 +4043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:114" ht="15">
+    <row r="2" spans="1:114" ht="15.75">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4356,7 +4372,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:114" ht="15">
+    <row r="3" spans="1:114" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -4691,7 +4707,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:114" ht="15">
+    <row r="4" spans="1:114" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -5020,7 +5036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:114" ht="15">
+    <row r="5" spans="1:114" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -5353,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:114" ht="15">
+    <row r="6" spans="1:114" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>188</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:114" ht="15">
+    <row r="7" spans="1:114" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>188</v>
       </c>
@@ -6019,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:114" ht="15">
+    <row r="8" spans="1:114" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>188</v>
       </c>
@@ -6355,7 +6371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:114" ht="15">
+    <row r="9" spans="1:114" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
@@ -6688,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:114" ht="15">
+    <row r="10" spans="1:114" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>194</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:114" ht="15">
+    <row r="11" spans="1:114" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>194</v>
       </c>
@@ -7354,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:114" ht="15">
+    <row r="12" spans="1:114" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>197</v>
       </c>
@@ -7687,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:114" ht="15">
+    <row r="13" spans="1:114" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>197</v>
       </c>
@@ -8020,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:114" ht="15">
+    <row r="14" spans="1:114" ht="15.75">
       <c r="A14" s="2" t="s">
         <v>197</v>
       </c>
@@ -8353,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:114" ht="15">
+    <row r="15" spans="1:114" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>201</v>
       </c>
@@ -8686,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:114" ht="15">
+    <row r="16" spans="1:114" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>201</v>
       </c>
@@ -9019,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:111" ht="15">
+    <row r="17" spans="1:111" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>204</v>
       </c>
@@ -9352,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:111" ht="15">
+    <row r="18" spans="1:111" ht="15.75">
       <c r="A18" s="2" t="s">
         <v>204</v>
       </c>
@@ -9685,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:111" ht="15">
+    <row r="19" spans="1:111" ht="15.75">
       <c r="A19" s="2" t="s">
         <v>204</v>
       </c>
@@ -10018,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:111" ht="15">
+    <row r="20" spans="1:111" ht="15.75">
       <c r="A20" s="2" t="s">
         <v>204</v>
       </c>
@@ -10351,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:111" ht="15">
+    <row r="21" spans="1:111" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>209</v>
       </c>
@@ -10684,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:111" ht="15">
+    <row r="22" spans="1:111" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -11017,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:111" ht="15">
+    <row r="23" spans="1:111" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>213</v>
       </c>
@@ -11350,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:111" ht="15">
+    <row r="24" spans="1:111" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>213</v>
       </c>
@@ -11683,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:111" ht="15">
+    <row r="25" spans="1:111" ht="15.75">
       <c r="A25" s="2" t="s">
         <v>213</v>
       </c>
@@ -12016,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:111" ht="15">
+    <row r="26" spans="1:111" ht="15.75">
       <c r="A26" s="2" t="s">
         <v>217</v>
       </c>
@@ -12349,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:111" ht="15">
+    <row r="27" spans="1:111" ht="15.75">
       <c r="A27" s="2" t="s">
         <v>217</v>
       </c>
@@ -12682,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:111" ht="15">
+    <row r="28" spans="1:111" ht="15.75">
       <c r="A28" s="2" t="s">
         <v>217</v>
       </c>
@@ -13015,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:111" ht="15">
+    <row r="29" spans="1:111" ht="15.75">
       <c r="A29" s="5" t="s">
         <v>222</v>
       </c>
@@ -13348,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:111" ht="15">
+    <row r="30" spans="1:111" ht="15.75">
       <c r="A30" s="5" t="s">
         <v>222</v>
       </c>
@@ -13681,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:111" ht="15">
+    <row r="31" spans="1:111" ht="15.75">
       <c r="A31" s="5" t="s">
         <v>222</v>
       </c>
@@ -14014,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:111" ht="15">
+    <row r="32" spans="1:111" ht="15.75">
       <c r="A32" s="5" t="s">
         <v>222</v>
       </c>
@@ -14347,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:112" ht="15">
+    <row r="33" spans="1:112" ht="15.75">
       <c r="A33" s="5" t="s">
         <v>222</v>
       </c>
@@ -14680,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:112" ht="15">
+    <row r="34" spans="1:112" ht="15.75">
       <c r="A34" s="2" t="s">
         <v>228</v>
       </c>
@@ -15013,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:112" ht="15">
+    <row r="35" spans="1:112" ht="15.75">
       <c r="A35" s="2" t="s">
         <v>228</v>
       </c>
@@ -15346,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:112" ht="15">
+    <row r="36" spans="1:112" ht="15.75">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -15679,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:112" ht="15">
+    <row r="37" spans="1:112" ht="15.75">
       <c r="A37" s="2" t="s">
         <v>228</v>
       </c>
@@ -16012,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:112" ht="15">
+    <row r="38" spans="1:112" ht="15.75">
       <c r="A38" s="2" t="s">
         <v>228</v>
       </c>
@@ -16345,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:112" ht="15">
+    <row r="39" spans="1:112" ht="15.75">
       <c r="A39" s="2" t="s">
         <v>228</v>
       </c>
@@ -16678,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:112" ht="15">
+    <row r="40" spans="1:112" ht="15.75">
       <c r="A40" s="5" t="s">
         <v>236</v>
       </c>
@@ -17011,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:112" ht="15">
+    <row r="41" spans="1:112" ht="15.75">
       <c r="A41" s="5" t="s">
         <v>236</v>
       </c>
@@ -17349,7 +17365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:112" ht="15">
+    <row r="42" spans="1:112" ht="15.75">
       <c r="A42" s="5" t="s">
         <v>236</v>
       </c>
@@ -17682,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:112" ht="15">
+    <row r="43" spans="1:112" ht="15.75">
       <c r="A43" s="5" t="s">
         <v>241</v>
       </c>
@@ -18015,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:112" ht="15">
+    <row r="44" spans="1:112" ht="15.75">
       <c r="A44" s="5" t="s">
         <v>241</v>
       </c>
@@ -18793,17 +18809,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN96"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="9" ySplit="14" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -19916,7 +19932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:144" ht="15">
+    <row r="5" spans="1:144" ht="15.75">
       <c r="A5" s="31">
         <v>1</v>
       </c>
@@ -19988,7 +20004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="6" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -20074,7 +20090,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="7" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A7" s="32">
         <v>3</v>
       </c>
@@ -20149,7 +20165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="8" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -20224,7 +20240,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="9" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -20272,7 +20288,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="10" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -20317,7 +20333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="11" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -20367,7 +20383,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="12" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -20396,7 +20412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="13" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -20464,7 +20480,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="14" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -20488,7 +20504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="15" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -20529,7 +20545,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:144" s="30" customFormat="1" ht="15">
+    <row r="16" spans="1:144" s="30" customFormat="1" ht="15.75">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -20568,7 +20584,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="17" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -20646,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="18" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -20751,7 +20767,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="19" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -20835,7 +20851,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="20" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -20947,7 +20963,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="21" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A21" s="32">
         <v>17</v>
       </c>
@@ -20994,7 +21010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:144" s="30" customFormat="1" ht="15">
+    <row r="22" spans="1:144" s="30" customFormat="1" ht="15.75">
       <c r="A22" s="32">
         <v>18</v>
       </c>
@@ -21042,7 +21058,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="23" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A23" s="32">
         <v>19</v>
       </c>
@@ -21069,7 +21085,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="24" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A24" s="32">
         <v>20</v>
       </c>
@@ -21181,7 +21197,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="25" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A25" s="32">
         <v>21</v>
       </c>
@@ -21279,7 +21295,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="26" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A26" s="32">
         <v>22</v>
       </c>
@@ -21327,7 +21343,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="27" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A27" s="32">
         <v>23</v>
       </c>
@@ -21393,7 +21409,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="28" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A28" s="32">
         <v>24</v>
       </c>
@@ -21433,7 +21449,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="29" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A29" s="32">
         <v>25</v>
       </c>
@@ -21507,7 +21523,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="30" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A30" s="32">
         <v>26</v>
       </c>
@@ -21567,7 +21583,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="31" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A31" s="32">
         <v>27</v>
       </c>
@@ -21665,7 +21681,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:144" s="30" customFormat="1" ht="15">
+    <row r="32" spans="1:144" s="30" customFormat="1" ht="15.75">
       <c r="A32" s="32">
         <v>28</v>
       </c>
@@ -21779,7 +21795,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="33" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A33" s="32">
         <v>29</v>
       </c>
@@ -21841,7 +21857,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="34" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A34" s="32">
         <v>30</v>
       </c>
@@ -21910,7 +21926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="35" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A35" s="32">
         <v>31</v>
       </c>
@@ -21949,7 +21965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="36" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A36" s="32">
         <v>32</v>
       </c>
@@ -22012,7 +22028,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="37" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A37" s="32">
         <v>33</v>
       </c>
@@ -22069,7 +22085,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="38" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A38" s="32">
         <v>34</v>
       </c>
@@ -22178,7 +22194,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="39" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A39" s="32">
         <v>35</v>
       </c>
@@ -22244,7 +22260,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="40" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A40" s="32">
         <v>36</v>
       </c>
@@ -22305,7 +22321,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="41" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A41" s="32">
         <v>37</v>
       </c>
@@ -22405,7 +22421,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="42" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A42" s="32">
         <v>38</v>
       </c>
@@ -22511,7 +22527,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="43" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A43" s="32">
         <v>39</v>
       </c>
@@ -22589,7 +22605,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="44" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="44" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A44" s="32">
         <v>40</v>
       </c>
@@ -22655,7 +22671,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="45" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A45" s="32">
         <v>41</v>
       </c>
@@ -22763,7 +22779,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:144" s="27" customFormat="1" ht="15">
+    <row r="46" spans="1:144" s="27" customFormat="1" ht="15.75">
       <c r="A46" s="32">
         <v>42</v>
       </c>
@@ -23449,7 +23465,7 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="2:14" ht="15">
+    <row r="53" spans="2:14" ht="15.75">
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
@@ -24110,7 +24126,7 @@
       <c r="N96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B54:E94">
+  <sortState ref="B54:E94">
     <sortCondition ref="B54:B94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24124,14 +24140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EL213"/>
   <sheetViews>
     <sheetView topLeftCell="A117" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -26541,7 +26557,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:141" ht="15">
+    <row r="14" spans="1:141" ht="15.75">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -28835,7 +28851,7 @@
       <c r="EK125" s="50"/>
       <c r="EL125" s="42"/>
     </row>
-    <row r="126" spans="1:142" ht="15">
+    <row r="126" spans="1:142" ht="15.75">
       <c r="A126" t="s">
         <v>597</v>
       </c>
@@ -29103,7 +29119,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15">
+    <row r="132" spans="1:13" ht="15.75">
       <c r="A132" s="31">
         <v>1</v>
       </c>
@@ -29138,7 +29154,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15">
+    <row r="133" spans="1:13" ht="15.75">
       <c r="A133" s="31">
         <v>25</v>
       </c>
@@ -29170,7 +29186,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15">
+    <row r="134" spans="1:13" ht="15.75">
       <c r="A134" s="31">
         <v>26</v>
       </c>
@@ -29202,7 +29218,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15">
+    <row r="135" spans="1:13" ht="15.75">
       <c r="A135" s="31">
         <v>27</v>
       </c>
@@ -29234,7 +29250,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15">
+    <row r="136" spans="1:13" ht="15.75">
       <c r="A136" s="31">
         <v>37</v>
       </c>
@@ -29266,7 +29282,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15">
+    <row r="137" spans="1:13" ht="15.75">
       <c r="A137" s="31">
         <v>61</v>
       </c>
@@ -29298,7 +29314,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15">
+    <row r="138" spans="1:13" ht="15.75">
       <c r="A138" s="31">
         <v>62</v>
       </c>
@@ -29330,7 +29346,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15">
+    <row r="139" spans="1:13" ht="15.75">
       <c r="A139" s="31">
         <v>63</v>
       </c>
@@ -29362,7 +29378,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15">
+    <row r="140" spans="1:13" ht="15.75">
       <c r="A140" s="31">
         <v>17</v>
       </c>
@@ -29394,7 +29410,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15">
+    <row r="141" spans="1:13" ht="15.75">
       <c r="A141" s="31">
         <v>28</v>
       </c>
@@ -29426,7 +29442,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15">
+    <row r="142" spans="1:13" ht="15.75">
       <c r="A142" s="31">
         <v>34</v>
       </c>
@@ -29458,7 +29474,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15">
+    <row r="143" spans="1:13" ht="15.75">
       <c r="A143" s="31">
         <v>41</v>
       </c>
@@ -29490,7 +29506,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15">
+    <row r="144" spans="1:13" ht="15.75">
       <c r="A144" s="31">
         <v>42</v>
       </c>
@@ -29522,7 +29538,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15">
+    <row r="145" spans="1:13" ht="15.75">
       <c r="A145" s="31">
         <v>64</v>
       </c>
@@ -29554,7 +29570,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15">
+    <row r="146" spans="1:13" ht="15.75">
       <c r="A146" s="31">
         <v>65</v>
       </c>
@@ -29586,7 +29602,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15">
+    <row r="147" spans="1:13" ht="15.75">
       <c r="A147" s="31">
         <v>66</v>
       </c>
@@ -29618,7 +29634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15">
+    <row r="148" spans="1:13" ht="15.75">
       <c r="A148" s="31">
         <v>72</v>
       </c>
@@ -29650,7 +29666,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15">
+    <row r="149" spans="1:13" ht="15.75">
       <c r="A149" s="31">
         <v>73</v>
       </c>
@@ -29682,7 +29698,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15">
+    <row r="150" spans="1:13" ht="15.75">
       <c r="A150" s="31">
         <v>74</v>
       </c>
@@ -29714,7 +29730,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15">
+    <row r="151" spans="1:13" ht="15.75">
       <c r="A151" s="31">
         <v>75</v>
       </c>
@@ -29746,7 +29762,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15">
+    <row r="152" spans="1:13" ht="15.75">
       <c r="A152" s="31">
         <v>76</v>
       </c>
@@ -29778,7 +29794,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15">
+    <row r="153" spans="1:13" ht="15.75">
       <c r="A153" s="31">
         <v>77</v>
       </c>
@@ -29810,7 +29826,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15">
+    <row r="154" spans="1:13" ht="15.75">
       <c r="A154" s="31">
         <v>2</v>
       </c>
@@ -29842,7 +29858,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15">
+    <row r="155" spans="1:13" ht="15.75">
       <c r="A155" s="31">
         <v>9</v>
       </c>
@@ -29874,7 +29890,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15">
+    <row r="156" spans="1:13" ht="15.75">
       <c r="A156" s="31">
         <v>15</v>
       </c>
@@ -29906,7 +29922,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15">
+    <row r="157" spans="1:13" ht="15.75">
       <c r="A157" s="31">
         <v>21</v>
       </c>
@@ -29938,7 +29954,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15">
+    <row r="158" spans="1:13" ht="15.75">
       <c r="A158" s="31">
         <v>81</v>
       </c>
@@ -29970,7 +29986,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15">
+    <row r="159" spans="1:13" ht="15.75">
       <c r="A159" s="31">
         <v>82</v>
       </c>
@@ -30002,7 +30018,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15">
+    <row r="160" spans="1:13" ht="15.75">
       <c r="A160" s="31">
         <v>5</v>
       </c>
@@ -30034,7 +30050,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15">
+    <row r="161" spans="1:13" ht="15.75">
       <c r="A161" s="31">
         <v>6</v>
       </c>
@@ -30066,7 +30082,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15">
+    <row r="162" spans="1:13" ht="15.75">
       <c r="A162" s="31">
         <v>10</v>
       </c>
@@ -30098,7 +30114,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15">
+    <row r="163" spans="1:13" ht="15.75">
       <c r="A163" s="31">
         <v>18</v>
       </c>
@@ -30130,7 +30146,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15">
+    <row r="164" spans="1:13" ht="15.75">
       <c r="A164" s="31">
         <v>19</v>
       </c>
@@ -30162,7 +30178,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15">
+    <row r="165" spans="1:13" ht="15.75">
       <c r="A165" s="31">
         <v>22</v>
       </c>
@@ -30194,7 +30210,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15">
+    <row r="166" spans="1:13" ht="15.75">
       <c r="A166" s="31">
         <v>53</v>
       </c>
@@ -30226,7 +30242,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15">
+    <row r="167" spans="1:13" ht="15.75">
       <c r="A167" s="31">
         <v>54</v>
       </c>
@@ -30258,7 +30274,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15">
+    <row r="168" spans="1:13" ht="15.75">
       <c r="A168" s="31">
         <v>24</v>
       </c>
@@ -30290,7 +30306,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15">
+    <row r="169" spans="1:13" ht="15.75">
       <c r="A169" s="31">
         <v>55</v>
       </c>
@@ -30322,7 +30338,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15">
+    <row r="170" spans="1:13" ht="15.75">
       <c r="A170" s="31">
         <v>56</v>
       </c>
@@ -30354,7 +30370,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15">
+    <row r="171" spans="1:13" ht="15.75">
       <c r="A171" s="31">
         <v>57</v>
       </c>
@@ -30386,7 +30402,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15">
+    <row r="172" spans="1:13" ht="15.75">
       <c r="A172" s="31">
         <v>58</v>
       </c>
@@ -30418,7 +30434,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15">
+    <row r="173" spans="1:13" ht="15.75">
       <c r="A173" s="31">
         <v>7</v>
       </c>
@@ -30450,7 +30466,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15">
+    <row r="174" spans="1:13" ht="15.75">
       <c r="A174" s="31">
         <v>8</v>
       </c>
@@ -30482,7 +30498,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15">
+    <row r="175" spans="1:13" ht="15.75">
       <c r="A175" s="31">
         <v>11</v>
       </c>
@@ -30514,7 +30530,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15">
+    <row r="176" spans="1:13" ht="15.75">
       <c r="A176" s="31">
         <v>12</v>
       </c>
@@ -30546,7 +30562,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15">
+    <row r="177" spans="1:13" ht="15.75">
       <c r="A177" s="31">
         <v>36</v>
       </c>
@@ -30578,7 +30594,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15">
+    <row r="178" spans="1:13" ht="15.75">
       <c r="A178" s="31">
         <v>40</v>
       </c>
@@ -30610,7 +30626,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15">
+    <row r="179" spans="1:13" ht="15.75">
       <c r="A179" s="31">
         <v>59</v>
       </c>
@@ -30642,7 +30658,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15">
+    <row r="180" spans="1:13" ht="15.75">
       <c r="A180" s="31">
         <v>60</v>
       </c>
@@ -30674,7 +30690,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15">
+    <row r="181" spans="1:13" ht="15.75">
       <c r="A181" s="31">
         <v>23</v>
       </c>
@@ -30706,7 +30722,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15">
+    <row r="182" spans="1:13" ht="15.75">
       <c r="A182" s="31">
         <v>29</v>
       </c>
@@ -30738,7 +30754,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15">
+    <row r="183" spans="1:13" ht="15.75">
       <c r="A183" s="31">
         <v>30</v>
       </c>
@@ -30770,7 +30786,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15">
+    <row r="184" spans="1:13" ht="15.75">
       <c r="A184" s="31">
         <v>32</v>
       </c>
@@ -30802,7 +30818,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15">
+    <row r="185" spans="1:13" ht="15.75">
       <c r="A185" s="31">
         <v>33</v>
       </c>
@@ -30834,7 +30850,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15">
+    <row r="186" spans="1:13" ht="15.75">
       <c r="A186" s="31">
         <v>78</v>
       </c>
@@ -30866,7 +30882,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15">
+    <row r="187" spans="1:13" ht="15.75">
       <c r="A187" s="31">
         <v>79</v>
       </c>
@@ -30898,7 +30914,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15">
+    <row r="188" spans="1:13" ht="15.75">
       <c r="A188" s="31">
         <v>80</v>
       </c>
@@ -30930,7 +30946,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15">
+    <row r="189" spans="1:13" ht="15.75">
       <c r="A189" s="31">
         <v>67</v>
       </c>
@@ -30962,7 +30978,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15">
+    <row r="190" spans="1:13" ht="15.75">
       <c r="A190" s="31">
         <v>68</v>
       </c>
@@ -30994,7 +31010,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15">
+    <row r="191" spans="1:13" ht="15.75">
       <c r="A191" s="31">
         <v>69</v>
       </c>
@@ -31026,7 +31042,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15">
+    <row r="192" spans="1:13" ht="15.75">
       <c r="A192" s="31">
         <v>70</v>
       </c>
@@ -31058,7 +31074,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15">
+    <row r="193" spans="1:13" ht="15.75">
       <c r="A193" s="31">
         <v>71</v>
       </c>
@@ -31090,7 +31106,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15">
+    <row r="194" spans="1:13" ht="15.75">
       <c r="A194" s="31">
         <v>43</v>
       </c>
@@ -31122,7 +31138,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15">
+    <row r="195" spans="1:13" ht="15.75">
       <c r="A195" s="31">
         <v>44</v>
       </c>
@@ -31154,7 +31170,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15">
+    <row r="196" spans="1:13" ht="15.75">
       <c r="A196" s="31">
         <v>45</v>
       </c>
@@ -31186,7 +31202,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15">
+    <row r="197" spans="1:13" ht="15.75">
       <c r="A197" s="31">
         <v>46</v>
       </c>
@@ -31218,7 +31234,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15">
+    <row r="198" spans="1:13" ht="15.75">
       <c r="A198" s="31">
         <v>47</v>
       </c>
@@ -31250,7 +31266,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15">
+    <row r="199" spans="1:13" ht="15.75">
       <c r="A199" s="31">
         <v>3</v>
       </c>
@@ -31282,7 +31298,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15">
+    <row r="200" spans="1:13" ht="15.75">
       <c r="A200" s="31">
         <v>4</v>
       </c>
@@ -31314,7 +31330,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15">
+    <row r="201" spans="1:13" ht="15.75">
       <c r="A201" s="31">
         <v>13</v>
       </c>
@@ -31346,7 +31362,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15">
+    <row r="202" spans="1:13" ht="15.75">
       <c r="A202" s="31">
         <v>31</v>
       </c>
@@ -31378,7 +31394,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15">
+    <row r="203" spans="1:13" ht="15.75">
       <c r="A203" s="31">
         <v>35</v>
       </c>
@@ -31410,7 +31426,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15">
+    <row r="204" spans="1:13" ht="15.75">
       <c r="A204" s="31">
         <v>48</v>
       </c>
@@ -31442,7 +31458,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15">
+    <row r="205" spans="1:13" ht="15.75">
       <c r="A205" s="31">
         <v>49</v>
       </c>
@@ -31474,7 +31490,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15">
+    <row r="206" spans="1:13" ht="15.75">
       <c r="A206" s="31">
         <v>50</v>
       </c>
@@ -31506,7 +31522,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15">
+    <row r="207" spans="1:13" ht="15.75">
       <c r="A207" s="31">
         <v>51</v>
       </c>
@@ -31538,7 +31554,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15">
+    <row r="208" spans="1:13" ht="15.75">
       <c r="A208" s="31">
         <v>52</v>
       </c>
@@ -31570,7 +31586,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15">
+    <row r="209" spans="1:13" ht="15.75">
       <c r="A209" s="31">
         <v>14</v>
       </c>
@@ -31602,7 +31618,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15">
+    <row r="210" spans="1:13" ht="15.75">
       <c r="A210" s="31">
         <v>16</v>
       </c>
@@ -31634,7 +31650,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15">
+    <row r="211" spans="1:13" ht="15.75">
       <c r="A211" s="31">
         <v>20</v>
       </c>
@@ -31666,7 +31682,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15">
+    <row r="212" spans="1:13" ht="15.75">
       <c r="A212" s="31">
         <v>38</v>
       </c>
@@ -31698,7 +31714,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15">
+    <row r="213" spans="1:13" ht="15.75">
       <c r="A213" s="31">
         <v>39</v>
       </c>
@@ -31731,7 +31747,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I140:M221">
+  <sortState ref="I140:M221">
     <sortCondition ref="I140:I221"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31745,14 +31761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="48" t="s">
@@ -31849,17 +31865,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EL91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="13" ySplit="20" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
       <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -33468,7 +33484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:142" ht="15">
+    <row r="5" spans="1:142" ht="15.75">
       <c r="A5" s="31">
         <v>1</v>
       </c>
@@ -33543,7 +33559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:142" ht="15">
+    <row r="6" spans="1:142" ht="15.75">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -33744,7 +33760,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:142" ht="15">
+    <row r="7" spans="1:142" ht="15.75">
       <c r="A7" s="32">
         <v>3</v>
       </c>
@@ -33937,7 +33953,7 @@
       <c r="EK7" s="27"/>
       <c r="EL7" s="27"/>
     </row>
-    <row r="8" spans="1:142" ht="15">
+    <row r="8" spans="1:142" ht="15.75">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -34130,7 +34146,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:142" ht="15">
+    <row r="9" spans="1:142" ht="15.75">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -34305,7 +34321,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:142" ht="15">
+    <row r="10" spans="1:142" ht="15.75">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -34478,7 +34494,7 @@
       <c r="EK10" s="27"/>
       <c r="EL10" s="27"/>
     </row>
-    <row r="11" spans="1:142" ht="15">
+    <row r="11" spans="1:142" ht="15.75">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -34655,7 +34671,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:142" ht="15">
+    <row r="12" spans="1:142" ht="15.75">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -34818,7 +34834,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:142" ht="15">
+    <row r="13" spans="1:142" ht="15.75">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -35007,7 +35023,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:142" ht="15">
+    <row r="14" spans="1:142" ht="15.75">
       <c r="A14" s="32">
         <v>10</v>
       </c>
@@ -35166,7 +35182,7 @@
       <c r="EK14" s="27"/>
       <c r="EL14" s="27"/>
     </row>
-    <row r="15" spans="1:142" ht="15">
+    <row r="15" spans="1:142" ht="15.75">
       <c r="A15" s="32">
         <v>11</v>
       </c>
@@ -35337,7 +35353,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:142" ht="15">
+    <row r="16" spans="1:142" ht="15.75">
       <c r="A16" s="32">
         <v>12</v>
       </c>
@@ -35507,7 +35523,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:142" ht="15">
+    <row r="17" spans="1:142" ht="15.75">
       <c r="A17" s="32">
         <v>13</v>
       </c>
@@ -35702,7 +35718,7 @@
       <c r="EK17" s="27"/>
       <c r="EL17" s="27"/>
     </row>
-    <row r="18" spans="1:142" ht="15">
+    <row r="18" spans="1:142" ht="15.75">
       <c r="A18" s="32">
         <v>14</v>
       </c>
@@ -35915,7 +35931,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:142" ht="15">
+    <row r="19" spans="1:142" ht="15.75">
       <c r="A19" s="32">
         <v>15</v>
       </c>
@@ -36115,7 +36131,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:142" ht="15">
+    <row r="20" spans="1:142" ht="15.75">
       <c r="A20" s="32">
         <v>16</v>
       </c>
@@ -36333,7 +36349,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:142" ht="15">
+    <row r="21" spans="1:142" ht="15.75">
       <c r="A21" s="32">
         <v>17</v>
       </c>
@@ -36508,7 +36524,7 @@
       <c r="EK21" s="27"/>
       <c r="EL21" s="27"/>
     </row>
-    <row r="22" spans="1:142" ht="15">
+    <row r="22" spans="1:142" ht="15.75">
       <c r="A22" s="32">
         <v>18</v>
       </c>
@@ -36683,7 +36699,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="23" spans="1:142" ht="15">
+    <row r="23" spans="1:142" ht="15.75">
       <c r="A23" s="32">
         <v>19</v>
       </c>
@@ -36844,7 +36860,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:142" ht="15">
+    <row r="24" spans="1:142" ht="15.75">
       <c r="A24" s="32">
         <v>20</v>
       </c>
@@ -37062,7 +37078,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:142" ht="15">
+    <row r="25" spans="1:142" ht="15.75">
       <c r="A25" s="32">
         <v>21</v>
       </c>
@@ -37271,7 +37287,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:142" ht="15">
+    <row r="26" spans="1:142" ht="15.75">
       <c r="A26" s="32">
         <v>22</v>
       </c>
@@ -37446,7 +37462,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="27" spans="1:142" ht="15">
+    <row r="27" spans="1:142" ht="15.75">
       <c r="A27" s="32">
         <v>23</v>
       </c>
@@ -37634,7 +37650,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:142" ht="15">
+    <row r="28" spans="1:142" ht="15.75">
       <c r="A28" s="32">
         <v>24</v>
       </c>
@@ -37804,7 +37820,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="29" spans="1:142" ht="15">
+    <row r="29" spans="1:142" ht="15.75">
       <c r="A29" s="32">
         <v>25</v>
       </c>
@@ -37997,7 +38013,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:142" ht="15">
+    <row r="30" spans="1:142" ht="15.75">
       <c r="A30" s="32">
         <v>26</v>
       </c>
@@ -38180,7 +38196,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:142" ht="15">
+    <row r="31" spans="1:142" ht="15.75">
       <c r="A31" s="32">
         <v>27</v>
       </c>
@@ -38389,7 +38405,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:142" ht="15">
+    <row r="32" spans="1:142" ht="15.75">
       <c r="A32" s="32">
         <v>28</v>
       </c>
@@ -38608,7 +38624,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="33" spans="1:142" ht="15">
+    <row r="33" spans="1:142" ht="15.75">
       <c r="A33" s="32">
         <v>29</v>
       </c>
@@ -38793,7 +38809,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:142" ht="15">
+    <row r="34" spans="1:142" ht="15.75">
       <c r="A34" s="32">
         <v>30</v>
       </c>
@@ -38982,7 +38998,7 @@
       <c r="EK34" s="27"/>
       <c r="EL34" s="27"/>
     </row>
-    <row r="35" spans="1:142" ht="15">
+    <row r="35" spans="1:142" ht="15.75">
       <c r="A35" s="32">
         <v>31</v>
       </c>
@@ -39151,7 +39167,7 @@
       <c r="EK35" s="27"/>
       <c r="EL35" s="27"/>
     </row>
-    <row r="36" spans="1:142" ht="15">
+    <row r="36" spans="1:142" ht="15.75">
       <c r="A36" s="32">
         <v>32</v>
       </c>
@@ -39336,7 +39352,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:142" ht="15">
+    <row r="37" spans="1:142" ht="15.75">
       <c r="A37" s="32">
         <v>33</v>
       </c>
@@ -39517,7 +39533,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:142" ht="15">
+    <row r="38" spans="1:142" ht="15.75">
       <c r="A38" s="32">
         <v>34</v>
       </c>
@@ -39733,7 +39749,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:142" ht="15">
+    <row r="39" spans="1:142" ht="15.75">
       <c r="A39" s="32">
         <v>35</v>
       </c>
@@ -39920,7 +39936,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:142" ht="15">
+    <row r="40" spans="1:142" ht="15.75">
       <c r="A40" s="32">
         <v>36</v>
       </c>
@@ -40104,7 +40120,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:142" ht="15">
+    <row r="41" spans="1:142" ht="15.75">
       <c r="A41" s="32">
         <v>37</v>
       </c>
@@ -40314,7 +40330,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:142" ht="15">
+    <row r="42" spans="1:142" ht="15.75">
       <c r="A42" s="32">
         <v>38</v>
       </c>
@@ -40526,7 +40542,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:142" ht="15">
+    <row r="43" spans="1:142" ht="15.75">
       <c r="A43" s="32">
         <v>39</v>
       </c>
@@ -40721,7 +40737,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="44" spans="1:142" ht="15">
+    <row r="44" spans="1:142" ht="15.75">
       <c r="A44" s="32">
         <v>40</v>
       </c>
@@ -40909,7 +40925,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:142" ht="15">
+    <row r="45" spans="1:142" ht="15.75">
       <c r="A45" s="32">
         <v>41</v>
       </c>
@@ -41124,7 +41140,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:142" ht="15">
+    <row r="46" spans="1:142" ht="15.75">
       <c r="A46" s="32">
         <v>42</v>
       </c>
@@ -41880,7 +41896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:142" ht="15">
+    <row r="48" spans="1:142" ht="15.75">
       <c r="B48" s="6"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -42121,7 +42137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:141" ht="15">
+    <row r="49" spans="1:141" ht="15.75">
       <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
@@ -42367,7 +42383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:141" s="64" customFormat="1" ht="15">
+    <row r="50" spans="1:141" s="64" customFormat="1" ht="15.75">
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
       <c r="D50" s="85"/>
@@ -42607,7 +42623,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:141" ht="15">
+    <row r="51" spans="1:141" ht="15.75">
       <c r="B51" s="2" t="s">
         <v>188</v>
       </c>
@@ -42855,7 +42871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:141" ht="15">
+    <row r="52" spans="1:141" ht="15.75">
       <c r="B52" s="2" t="s">
         <v>188</v>
       </c>
@@ -43103,7 +43119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:141" ht="15">
+    <row r="53" spans="1:141" ht="15.75">
       <c r="B53" s="2" t="s">
         <v>188</v>
       </c>
@@ -43351,7 +43367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:141" ht="15">
+    <row r="54" spans="1:141" ht="15.75">
       <c r="B54" s="2" t="s">
         <v>188</v>
       </c>
@@ -43599,7 +43615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:141" ht="15">
+    <row r="55" spans="1:141" ht="15.75">
       <c r="B55" s="2" t="s">
         <v>188</v>
       </c>
@@ -43847,7 +43863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:141" ht="15">
+    <row r="56" spans="1:141" ht="15.75">
       <c r="B56" s="2" t="s">
         <v>194</v>
       </c>
@@ -44095,7 +44111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:141" ht="15">
+    <row r="57" spans="1:141" ht="15.75">
       <c r="B57" s="2" t="s">
         <v>194</v>
       </c>
@@ -44343,7 +44359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:141" ht="15">
+    <row r="58" spans="1:141" ht="15.75">
       <c r="B58" s="2" t="s">
         <v>197</v>
       </c>
@@ -44591,7 +44607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:141" ht="15">
+    <row r="59" spans="1:141" ht="15.75">
       <c r="B59" s="2" t="s">
         <v>197</v>
       </c>
@@ -44839,7 +44855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:141" ht="15">
+    <row r="60" spans="1:141" ht="15.75">
       <c r="B60" s="2" t="s">
         <v>197</v>
       </c>
@@ -45087,7 +45103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:141" ht="15">
+    <row r="61" spans="1:141" ht="15.75">
       <c r="A61">
         <v>45</v>
       </c>
@@ -45338,7 +45354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:141" ht="15">
+    <row r="62" spans="1:141" ht="15.75">
       <c r="B62" s="2" t="s">
         <v>201</v>
       </c>
@@ -45586,7 +45602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:141" ht="15">
+    <row r="63" spans="1:141" ht="15.75">
       <c r="B63" s="2" t="s">
         <v>204</v>
       </c>
@@ -45834,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:141" ht="15">
+    <row r="64" spans="1:141" ht="15.75">
       <c r="B64" s="2" t="s">
         <v>204</v>
       </c>
@@ -46082,7 +46098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:141" ht="15">
+    <row r="65" spans="1:141" ht="15.75">
       <c r="B65" s="2" t="s">
         <v>204</v>
       </c>
@@ -46330,7 +46346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:141" ht="15">
+    <row r="66" spans="1:141" ht="15.75">
       <c r="B66" s="2" t="s">
         <v>204</v>
       </c>
@@ -46578,7 +46594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:141" ht="15">
+    <row r="67" spans="1:141" ht="15.75">
       <c r="B67" s="2" t="s">
         <v>209</v>
       </c>
@@ -46826,7 +46842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:141" ht="15">
+    <row r="68" spans="1:141" ht="15.75">
       <c r="B68" s="2" t="s">
         <v>209</v>
       </c>
@@ -47074,7 +47090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:141" ht="15">
+    <row r="69" spans="1:141" ht="15.75">
       <c r="B69" s="2" t="s">
         <v>213</v>
       </c>
@@ -47322,7 +47338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:141" ht="15">
+    <row r="70" spans="1:141" ht="15.75">
       <c r="B70" s="2" t="s">
         <v>213</v>
       </c>
@@ -47570,7 +47586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:141" ht="15">
+    <row r="71" spans="1:141" ht="15.75">
       <c r="B71" s="2" t="s">
         <v>213</v>
       </c>
@@ -47818,7 +47834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:141" ht="15">
+    <row r="72" spans="1:141" ht="15.75">
       <c r="B72" s="2" t="s">
         <v>217</v>
       </c>
@@ -48066,7 +48082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:141" ht="15">
+    <row r="73" spans="1:141" ht="15.75">
       <c r="B73" s="2" t="s">
         <v>217</v>
       </c>
@@ -48314,7 +48330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:141" ht="15">
+    <row r="74" spans="1:141" ht="15.75">
       <c r="B74" s="2" t="s">
         <v>217</v>
       </c>
@@ -48562,7 +48578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:141" ht="15">
+    <row r="75" spans="1:141" ht="15.75">
       <c r="B75" s="5" t="s">
         <v>222</v>
       </c>
@@ -48810,7 +48826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:141" ht="15">
+    <row r="76" spans="1:141" ht="15.75">
       <c r="B76" s="5" t="s">
         <v>222</v>
       </c>
@@ -49058,7 +49074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:141" ht="15">
+    <row r="77" spans="1:141" ht="15.75">
       <c r="A77">
         <v>43</v>
       </c>
@@ -49309,7 +49325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:141" ht="15">
+    <row r="78" spans="1:141" ht="15.75">
       <c r="B78" s="5" t="s">
         <v>222</v>
       </c>
@@ -49557,7 +49573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:141" ht="15">
+    <row r="79" spans="1:141" ht="15.75">
       <c r="B79" s="5" t="s">
         <v>222</v>
       </c>
@@ -49805,7 +49821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:141" ht="15">
+    <row r="80" spans="1:141" ht="15.75">
       <c r="B80" s="2" t="s">
         <v>228</v>
       </c>
@@ -50053,7 +50069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:142" ht="15">
+    <row r="81" spans="1:142" ht="15.75">
       <c r="B81" s="2" t="s">
         <v>228</v>
       </c>
@@ -50301,7 +50317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:142" ht="15">
+    <row r="82" spans="1:142" ht="15.75">
       <c r="A82">
         <v>44</v>
       </c>
@@ -50552,7 +50568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:142" ht="15">
+    <row r="83" spans="1:142" ht="15.75">
       <c r="B83" s="2" t="s">
         <v>228</v>
       </c>
@@ -50800,7 +50816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:142" ht="15">
+    <row r="84" spans="1:142" ht="15.75">
       <c r="B84" s="2" t="s">
         <v>228</v>
       </c>
@@ -51048,7 +51064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:142" ht="15">
+    <row r="85" spans="1:142" ht="15.75">
       <c r="A85">
         <v>46</v>
       </c>
@@ -51299,7 +51315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:142" ht="15">
+    <row r="86" spans="1:142" ht="15.75">
       <c r="B86" s="5" t="s">
         <v>236</v>
       </c>
@@ -51547,7 +51563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:142" ht="15">
+    <row r="87" spans="1:142" ht="15.75">
       <c r="B87" s="5" t="s">
         <v>236</v>
       </c>
@@ -51803,7 +51819,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:142" ht="15">
+    <row r="88" spans="1:142" ht="15.75">
       <c r="B88" s="5" t="s">
         <v>236</v>
       </c>
@@ -52051,7 +52067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:142" ht="15">
+    <row r="89" spans="1:142" ht="15.75">
       <c r="B89" s="5" t="s">
         <v>241</v>
       </c>
@@ -52299,7 +52315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:142" ht="15">
+    <row r="90" spans="1:142" ht="15.75">
       <c r="B90" s="5" t="s">
         <v>241</v>
       </c>
@@ -52547,7 +52563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:142" s="58" customFormat="1" ht="15">
+    <row r="91" spans="1:142" s="58" customFormat="1" ht="15.75">
       <c r="A91" s="57" t="s">
         <v>651</v>
       </c>
@@ -53107,14 +53123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="39" customWidth="1"/>
@@ -53764,7 +53780,7 @@
         <v>641</v>
       </c>
       <c r="BU2" s="39" t="s">
-        <v>268</v>
+        <v>660</v>
       </c>
       <c r="BV2" s="39" t="s">
         <v>48</v>
@@ -54173,6 +54189,9 @@
       <c r="BT3" s="39" t="s">
         <v>563</v>
       </c>
+      <c r="BU3" s="39" t="s">
+        <v>660</v>
+      </c>
       <c r="BV3" s="39" t="s">
         <v>354</v>
       </c>
@@ -54203,6 +54222,9 @@
       <c r="CE3" s="73" t="s">
         <v>569</v>
       </c>
+      <c r="CF3" s="73" t="s">
+        <v>658</v>
+      </c>
       <c r="CG3" s="81" t="s">
         <v>570</v>
       </c>
@@ -54317,12 +54339,18 @@
       <c r="DR3" s="92" t="s">
         <v>590</v>
       </c>
+      <c r="DS3" s="39" t="s">
+        <v>274</v>
+      </c>
       <c r="DT3" s="73" t="s">
         <v>181</v>
       </c>
       <c r="DU3" s="73" t="s">
         <v>182</v>
       </c>
+      <c r="DV3" s="39" t="s">
+        <v>657</v>
+      </c>
       <c r="DW3" s="39" t="s">
         <v>391</v>
       </c>
@@ -54358,6 +54386,9 @@
       </c>
       <c r="EH3" s="39" t="s">
         <v>402</v>
+      </c>
+      <c r="EI3" s="39" t="s">
+        <v>659</v>
       </c>
       <c r="EJ3" s="39" t="s">
         <v>596</v>
@@ -54725,7 +54756,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:143" s="95" customFormat="1" ht="15">
+    <row r="5" spans="1:143" s="95" customFormat="1" ht="15.75">
       <c r="G5" s="96" t="s">
         <v>514</v>
       </c>
@@ -54961,7 +54992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:143" ht="15">
+    <row r="6" spans="1:143" ht="15.75">
       <c r="A6" s="97">
         <v>1</v>
       </c>
@@ -55039,7 +55070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:143" ht="15">
+    <row r="7" spans="1:143" ht="15.75">
       <c r="A7" s="98">
         <v>2</v>
       </c>
@@ -55242,7 +55273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:143" ht="15">
+    <row r="8" spans="1:143" ht="15.75">
       <c r="A8" s="98">
         <v>3</v>
       </c>
@@ -55438,7 +55469,7 @@
       <c r="EL8" s="22"/>
       <c r="EM8" s="22"/>
     </row>
-    <row r="9" spans="1:143" ht="15">
+    <row r="9" spans="1:143" ht="15.75">
       <c r="A9" s="98">
         <v>4</v>
       </c>
@@ -55634,7 +55665,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:143" ht="15">
+    <row r="10" spans="1:143" ht="15.75">
       <c r="A10" s="98">
         <v>5</v>
       </c>
@@ -55812,7 +55843,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:143" ht="15">
+    <row r="11" spans="1:143" ht="15.75">
       <c r="A11" s="98">
         <v>6</v>
       </c>
@@ -55988,7 +56019,7 @@
       <c r="EL11" s="22"/>
       <c r="EM11" s="22"/>
     </row>
-    <row r="12" spans="1:143" ht="15">
+    <row r="12" spans="1:143" ht="15.75">
       <c r="A12" s="98">
         <v>7</v>
       </c>
@@ -56167,7 +56198,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:143" ht="15">
+    <row r="13" spans="1:143" ht="15.75">
       <c r="A13" s="98">
         <v>8</v>
       </c>
@@ -56332,7 +56363,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:143" ht="15">
+    <row r="14" spans="1:143" ht="15.75">
       <c r="A14" s="98">
         <v>9</v>
       </c>
@@ -56523,7 +56554,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:143" ht="15">
+    <row r="15" spans="1:143" ht="15.75">
       <c r="A15" s="98">
         <v>10</v>
       </c>
@@ -56685,7 +56716,7 @@
       <c r="EL15" s="22"/>
       <c r="EM15" s="22"/>
     </row>
-    <row r="16" spans="1:143" ht="15">
+    <row r="16" spans="1:143" ht="15.75">
       <c r="A16" s="98">
         <v>11</v>
       </c>
@@ -56858,7 +56889,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:143" ht="15">
+    <row r="17" spans="1:143" ht="15.75">
       <c r="A17" s="98">
         <v>12</v>
       </c>
@@ -57031,7 +57062,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:143" ht="15">
+    <row r="18" spans="1:143" ht="15.75">
       <c r="A18" s="98">
         <v>13</v>
       </c>
@@ -57229,7 +57260,7 @@
       <c r="EL18" s="22"/>
       <c r="EM18" s="22"/>
     </row>
-    <row r="19" spans="1:143" ht="15">
+    <row r="19" spans="1:143" ht="15.75">
       <c r="A19" s="98">
         <v>14</v>
       </c>
@@ -57445,7 +57476,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:143" ht="15">
+    <row r="20" spans="1:143" ht="15.75">
       <c r="A20" s="98">
         <v>15</v>
       </c>
@@ -57647,7 +57678,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:143" ht="15">
+    <row r="21" spans="1:143" ht="15.75">
       <c r="A21" s="98">
         <v>16</v>
       </c>
@@ -57868,7 +57899,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:143" ht="15">
+    <row r="22" spans="1:143" ht="15.75">
       <c r="A22" s="98">
         <v>17</v>
       </c>
@@ -58045,7 +58076,7 @@
       <c r="EL22" s="22"/>
       <c r="EM22" s="22"/>
     </row>
-    <row r="23" spans="1:143" ht="15">
+    <row r="23" spans="1:143" ht="15.75">
       <c r="A23" s="98">
         <v>18</v>
       </c>
@@ -58223,7 +58254,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="1:143" ht="15">
+    <row r="24" spans="1:143" ht="15.75">
       <c r="A24" s="98">
         <v>19</v>
       </c>
@@ -58387,7 +58418,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:143" ht="15">
+    <row r="25" spans="1:143" ht="15.75">
       <c r="A25" s="98">
         <v>20</v>
       </c>
@@ -58608,7 +58639,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:143" ht="15">
+    <row r="26" spans="1:143" ht="15.75">
       <c r="A26" s="98">
         <v>21</v>
       </c>
@@ -58819,7 +58850,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:143" ht="15">
+    <row r="27" spans="1:143" ht="15.75">
       <c r="A27" s="98">
         <v>22</v>
       </c>
@@ -58997,7 +59028,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:143" ht="15">
+    <row r="28" spans="1:143" ht="15.75">
       <c r="A28" s="98">
         <v>23</v>
       </c>
@@ -59187,7 +59218,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:143" ht="15">
+    <row r="29" spans="1:143" ht="15.75">
       <c r="A29" s="98">
         <v>24</v>
       </c>
@@ -59360,7 +59391,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:143" ht="15">
+    <row r="30" spans="1:143" ht="15.75">
       <c r="A30" s="98">
         <v>25</v>
       </c>
@@ -59555,7 +59586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:143" ht="15">
+    <row r="31" spans="1:143" ht="15.75">
       <c r="A31" s="98">
         <v>26</v>
       </c>
@@ -59741,7 +59772,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:143" ht="15">
+    <row r="32" spans="1:143" ht="15.75">
       <c r="A32" s="98">
         <v>27</v>
       </c>
@@ -59952,7 +59983,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:143" ht="15">
+    <row r="33" spans="1:143" ht="15.75">
       <c r="A33" s="98">
         <v>28</v>
       </c>
@@ -60174,7 +60205,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:143" ht="15">
+    <row r="34" spans="1:143" ht="15.75">
       <c r="A34" s="98">
         <v>29</v>
       </c>
@@ -60361,7 +60392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:143" ht="15">
+    <row r="35" spans="1:143" ht="15.75">
       <c r="A35" s="98">
         <v>30</v>
       </c>
@@ -60553,7 +60584,7 @@
       <c r="EL35" s="22"/>
       <c r="EM35" s="22"/>
     </row>
-    <row r="36" spans="1:143" ht="15">
+    <row r="36" spans="1:143" ht="15.75">
       <c r="A36" s="98">
         <v>31</v>
       </c>
@@ -60725,7 +60756,7 @@
       <c r="EL36" s="22"/>
       <c r="EM36" s="22"/>
     </row>
-    <row r="37" spans="1:143" ht="15">
+    <row r="37" spans="1:143" ht="15.75">
       <c r="A37" s="98">
         <v>32</v>
       </c>
@@ -60913,7 +60944,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:143" ht="15">
+    <row r="38" spans="1:143" ht="15.75">
       <c r="A38" s="98">
         <v>33</v>
       </c>
@@ -61097,7 +61128,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:143" ht="15">
+    <row r="39" spans="1:143" ht="15.75">
       <c r="A39" s="98">
         <v>34</v>
       </c>
@@ -61316,7 +61347,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:143" ht="15">
+    <row r="40" spans="1:143" ht="15.75">
       <c r="A40" s="98">
         <v>35</v>
       </c>
@@ -61506,7 +61537,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:143" ht="15">
+    <row r="41" spans="1:143" ht="15.75">
       <c r="A41" s="98">
         <v>36</v>
       </c>
@@ -61693,7 +61724,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:143" ht="15">
+    <row r="42" spans="1:143" ht="15.75">
       <c r="A42" s="98">
         <v>37</v>
       </c>
@@ -61906,7 +61937,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:143" ht="15">
+    <row r="43" spans="1:143" ht="15.75">
       <c r="A43" s="98">
         <v>38</v>
       </c>
@@ -62121,7 +62152,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:143" ht="15">
+    <row r="44" spans="1:143" ht="15.75">
       <c r="A44" s="98">
         <v>39</v>
       </c>
@@ -62319,7 +62350,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:143" ht="15">
+    <row r="45" spans="1:143" ht="15.75">
       <c r="A45" s="98">
         <v>40</v>
       </c>
@@ -62509,7 +62540,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:143" ht="15">
+    <row r="46" spans="1:143" ht="15.75">
       <c r="A46" s="98">
         <v>41</v>
       </c>
@@ -62727,7 +62758,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:143" ht="15">
+    <row r="47" spans="1:143" ht="15.75">
       <c r="A47" s="98">
         <v>42</v>
       </c>
@@ -62941,7 +62972,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:143" ht="15">
+    <row r="48" spans="1:143" ht="15.75">
       <c r="A48" s="98">
         <v>43</v>
       </c>
@@ -63194,7 +63225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:142" ht="15">
+    <row r="49" spans="1:142" ht="15.75">
       <c r="A49" s="98">
         <v>44</v>
       </c>
@@ -63447,7 +63478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:142" ht="15">
+    <row r="50" spans="1:142" ht="15.75">
       <c r="A50" s="98">
         <v>45</v>
       </c>
@@ -63700,7 +63731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:142" ht="15">
+    <row r="51" spans="1:142" ht="15.75">
       <c r="A51" s="98">
         <v>46</v>
       </c>
@@ -63954,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:142" ht="15">
+    <row r="52" spans="1:142" ht="15.75">
       <c r="A52" s="98">
         <v>47</v>
       </c>
@@ -64208,7 +64239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:142" ht="15">
+    <row r="53" spans="1:142" ht="15.75">
       <c r="A53" s="98">
         <v>48</v>
       </c>
@@ -64462,7 +64493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:142" ht="15">
+    <row r="54" spans="1:142" ht="15.75">
       <c r="A54" s="98">
         <v>49</v>
       </c>
@@ -64716,7 +64747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:142" ht="15">
+    <row r="55" spans="1:142" ht="15.75">
       <c r="A55" s="98">
         <v>50</v>
       </c>
@@ -64970,7 +65001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:142" ht="15">
+    <row r="56" spans="1:142" ht="15.75">
       <c r="A56" s="98">
         <v>51</v>
       </c>
@@ -65223,7 +65254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:142" ht="15">
+    <row r="57" spans="1:142" ht="15.75">
       <c r="A57" s="98">
         <v>52</v>
       </c>
@@ -65476,7 +65507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:142" ht="15">
+    <row r="58" spans="1:142" ht="15.75">
       <c r="A58" s="98">
         <v>53</v>
       </c>
@@ -65729,7 +65760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:142" ht="15">
+    <row r="59" spans="1:142" ht="15.75">
       <c r="A59" s="98">
         <v>54</v>
       </c>
@@ -65982,7 +66013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:142" ht="15">
+    <row r="60" spans="1:142" ht="15.75">
       <c r="A60" s="98">
         <v>55</v>
       </c>
@@ -66235,7 +66266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:142" ht="15">
+    <row r="61" spans="1:142" ht="15.75">
       <c r="A61" s="98">
         <v>56</v>
       </c>
@@ -66488,7 +66519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:142" ht="15">
+    <row r="62" spans="1:142" ht="15.75">
       <c r="A62" s="98">
         <v>57</v>
       </c>
@@ -66741,7 +66772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:142" ht="15">
+    <row r="63" spans="1:142" ht="15.75">
       <c r="A63" s="98">
         <v>58</v>
       </c>
@@ -66994,7 +67025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:142" ht="15">
+    <row r="64" spans="1:142" ht="15.75">
       <c r="A64" s="98">
         <v>59</v>
       </c>
@@ -67247,7 +67278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:142" ht="15">
+    <row r="65" spans="1:142" ht="15.75">
       <c r="A65" s="98">
         <v>60</v>
       </c>
@@ -67500,7 +67531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:142" ht="15">
+    <row r="66" spans="1:142" ht="15.75">
       <c r="A66" s="98">
         <v>61</v>
       </c>
@@ -67753,7 +67784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:142" ht="15">
+    <row r="67" spans="1:142" ht="15.75">
       <c r="A67" s="98">
         <v>62</v>
       </c>
@@ -68006,7 +68037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:142" ht="15">
+    <row r="68" spans="1:142" ht="15.75">
       <c r="A68" s="98">
         <v>63</v>
       </c>
@@ -68259,7 +68290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:142" ht="15">
+    <row r="69" spans="1:142" ht="15.75">
       <c r="A69" s="98">
         <v>64</v>
       </c>
@@ -68513,7 +68544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:142" ht="15">
+    <row r="70" spans="1:142" ht="15.75">
       <c r="A70" s="98">
         <v>65</v>
       </c>
@@ -68767,7 +68798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:142" ht="15">
+    <row r="71" spans="1:142" ht="15.75">
       <c r="A71" s="98">
         <v>66</v>
       </c>
@@ -69021,7 +69052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:142" ht="15">
+    <row r="72" spans="1:142" ht="15.75">
       <c r="A72" s="98">
         <v>67</v>
       </c>
@@ -69275,7 +69306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:142" ht="15">
+    <row r="73" spans="1:142" ht="15.75">
       <c r="A73" s="98">
         <v>68</v>
       </c>
@@ -69529,7 +69560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:142" ht="15">
+    <row r="74" spans="1:142" ht="15.75">
       <c r="A74" s="98">
         <v>69</v>
       </c>
@@ -69783,7 +69814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:142" ht="15">
+    <row r="75" spans="1:142" ht="15.75">
       <c r="A75" s="98">
         <v>70</v>
       </c>
@@ -70037,7 +70068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:142" ht="15">
+    <row r="76" spans="1:142" ht="15.75">
       <c r="A76" s="98">
         <v>71</v>
       </c>
@@ -70291,7 +70322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:142" ht="15">
+    <row r="77" spans="1:142" ht="15.75">
       <c r="A77" s="98">
         <v>72</v>
       </c>
@@ -70544,7 +70575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:142" ht="15">
+    <row r="78" spans="1:142" ht="15.75">
       <c r="A78" s="98">
         <v>73</v>
       </c>
@@ -70797,7 +70828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:142" ht="15">
+    <row r="79" spans="1:142" ht="15.75">
       <c r="A79" s="98">
         <v>74</v>
       </c>
@@ -71050,7 +71081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:142" ht="15">
+    <row r="80" spans="1:142" ht="15.75">
       <c r="A80" s="98">
         <v>75</v>
       </c>
@@ -71303,7 +71334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:143" ht="15">
+    <row r="81" spans="1:143" ht="15.75">
       <c r="A81" s="98">
         <v>76</v>
       </c>
@@ -71556,7 +71587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:143" ht="15">
+    <row r="82" spans="1:143" ht="15.75">
       <c r="A82" s="98">
         <v>77</v>
       </c>
@@ -71809,7 +71840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:143" ht="15">
+    <row r="83" spans="1:143" ht="15.75">
       <c r="A83" s="98">
         <v>78</v>
       </c>
@@ -72062,7 +72093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:143" ht="15">
+    <row r="84" spans="1:143" ht="15.75">
       <c r="A84" s="98">
         <v>79</v>
       </c>
@@ -72321,7 +72352,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:143" ht="15">
+    <row r="85" spans="1:143" ht="15.75">
       <c r="A85" s="98">
         <v>80</v>
       </c>
@@ -72574,7 +72605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:143" ht="15">
+    <row r="86" spans="1:143" ht="15.75">
       <c r="A86" s="98">
         <v>81</v>
       </c>
@@ -72827,7 +72858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:143" ht="15">
+    <row r="87" spans="1:143" ht="15.75">
       <c r="A87" s="98">
         <v>82</v>
       </c>
@@ -73092,14 +73123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2E3066-9FCD-4FA0-8D05-E2B9AFEBE60E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM226"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="C91" sqref="C91:H226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="39" customWidth="1"/>
@@ -74710,7 +74741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:143" s="95" customFormat="1" ht="15">
+    <row r="5" spans="1:143" s="95" customFormat="1" ht="15.75">
       <c r="G5" s="96" t="s">
         <v>514</v>
       </c>
@@ -74946,7 +74977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:143" ht="15">
+    <row r="6" spans="1:143" ht="15.75">
       <c r="A6" s="97">
         <v>1</v>
       </c>
@@ -75024,7 +75055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:143" ht="15">
+    <row r="7" spans="1:143" ht="15.75">
       <c r="A7" s="98">
         <v>2</v>
       </c>
@@ -75227,7 +75258,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:143" ht="15">
+    <row r="8" spans="1:143" ht="15.75">
       <c r="A8" s="98">
         <v>3</v>
       </c>
@@ -75423,7 +75454,7 @@
       <c r="EL8" s="22"/>
       <c r="EM8" s="22"/>
     </row>
-    <row r="9" spans="1:143" ht="15">
+    <row r="9" spans="1:143" ht="15.75">
       <c r="A9" s="98">
         <v>4</v>
       </c>
@@ -75619,7 +75650,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:143" ht="15">
+    <row r="10" spans="1:143" ht="15.75">
       <c r="A10" s="98">
         <v>5</v>
       </c>
@@ -75797,7 +75828,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:143" ht="15">
+    <row r="11" spans="1:143" ht="15.75">
       <c r="A11" s="98">
         <v>6</v>
       </c>
@@ -75973,7 +76004,7 @@
       <c r="EL11" s="22"/>
       <c r="EM11" s="22"/>
     </row>
-    <row r="12" spans="1:143" ht="15">
+    <row r="12" spans="1:143" ht="15.75">
       <c r="A12" s="98">
         <v>7</v>
       </c>
@@ -76152,7 +76183,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:143" ht="15">
+    <row r="13" spans="1:143" ht="15.75">
       <c r="A13" s="98">
         <v>8</v>
       </c>
@@ -76317,7 +76348,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:143" ht="15">
+    <row r="14" spans="1:143" ht="15.75">
       <c r="A14" s="98">
         <v>9</v>
       </c>
@@ -76508,7 +76539,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="15" spans="1:143" ht="15">
+    <row r="15" spans="1:143" ht="15.75">
       <c r="A15" s="98">
         <v>10</v>
       </c>
@@ -76670,7 +76701,7 @@
       <c r="EL15" s="22"/>
       <c r="EM15" s="22"/>
     </row>
-    <row r="16" spans="1:143" ht="15">
+    <row r="16" spans="1:143" ht="15.75">
       <c r="A16" s="98">
         <v>11</v>
       </c>
@@ -76843,7 +76874,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:143" ht="15">
+    <row r="17" spans="1:143" ht="15.75">
       <c r="A17" s="98">
         <v>12</v>
       </c>
@@ -77016,7 +77047,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:143" ht="15">
+    <row r="18" spans="1:143" ht="15.75">
       <c r="A18" s="98">
         <v>13</v>
       </c>
@@ -77214,7 +77245,7 @@
       <c r="EL18" s="22"/>
       <c r="EM18" s="22"/>
     </row>
-    <row r="19" spans="1:143" ht="15">
+    <row r="19" spans="1:143" ht="15.75">
       <c r="A19" s="98">
         <v>14</v>
       </c>
@@ -77430,7 +77461,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:143" ht="15">
+    <row r="20" spans="1:143" ht="15.75">
       <c r="A20" s="98">
         <v>15</v>
       </c>
@@ -77632,7 +77663,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:143" ht="15">
+    <row r="21" spans="1:143" ht="15.75">
       <c r="A21" s="98">
         <v>16</v>
       </c>
@@ -77853,7 +77884,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:143" ht="15">
+    <row r="22" spans="1:143" ht="15.75">
       <c r="A22" s="98">
         <v>17</v>
       </c>
@@ -78030,7 +78061,7 @@
       <c r="EL22" s="22"/>
       <c r="EM22" s="22"/>
     </row>
-    <row r="23" spans="1:143" ht="15">
+    <row r="23" spans="1:143" ht="15.75">
       <c r="A23" s="98">
         <v>18</v>
       </c>
@@ -78208,7 +78239,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="24" spans="1:143" ht="15">
+    <row r="24" spans="1:143" ht="15.75">
       <c r="A24" s="98">
         <v>19</v>
       </c>
@@ -78372,7 +78403,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:143" ht="15">
+    <row r="25" spans="1:143" ht="15.75">
       <c r="A25" s="98">
         <v>20</v>
       </c>
@@ -78593,7 +78624,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:143" ht="15">
+    <row r="26" spans="1:143" ht="15.75">
       <c r="A26" s="98">
         <v>21</v>
       </c>
@@ -78804,7 +78835,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:143" ht="15">
+    <row r="27" spans="1:143" ht="15.75">
       <c r="A27" s="98">
         <v>22</v>
       </c>
@@ -78982,7 +79013,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:143" ht="15">
+    <row r="28" spans="1:143" ht="15.75">
       <c r="A28" s="98">
         <v>23</v>
       </c>
@@ -79172,7 +79203,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:143" ht="15">
+    <row r="29" spans="1:143" ht="15.75">
       <c r="A29" s="98">
         <v>24</v>
       </c>
@@ -79345,7 +79376,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:143" ht="15">
+    <row r="30" spans="1:143" ht="15.75">
       <c r="A30" s="98">
         <v>25</v>
       </c>
@@ -79540,7 +79571,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:143" ht="15">
+    <row r="31" spans="1:143" ht="15.75">
       <c r="A31" s="98">
         <v>26</v>
       </c>
@@ -79726,7 +79757,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:143" ht="15">
+    <row r="32" spans="1:143" ht="15.75">
       <c r="A32" s="98">
         <v>27</v>
       </c>
@@ -79937,7 +79968,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:143" ht="15">
+    <row r="33" spans="1:143" ht="15.75">
       <c r="A33" s="98">
         <v>28</v>
       </c>
@@ -80159,7 +80190,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:143" ht="15">
+    <row r="34" spans="1:143" ht="15.75">
       <c r="A34" s="98">
         <v>29</v>
       </c>
@@ -80346,7 +80377,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:143" ht="15">
+    <row r="35" spans="1:143" ht="15.75">
       <c r="A35" s="98">
         <v>30</v>
       </c>
@@ -80538,7 +80569,7 @@
       <c r="EL35" s="22"/>
       <c r="EM35" s="22"/>
     </row>
-    <row r="36" spans="1:143" ht="15">
+    <row r="36" spans="1:143" ht="15.75">
       <c r="A36" s="98">
         <v>31</v>
       </c>
@@ -80710,7 +80741,7 @@
       <c r="EL36" s="22"/>
       <c r="EM36" s="22"/>
     </row>
-    <row r="37" spans="1:143" ht="15">
+    <row r="37" spans="1:143" ht="15.75">
       <c r="A37" s="98">
         <v>32</v>
       </c>
@@ -80898,7 +80929,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:143" ht="15">
+    <row r="38" spans="1:143" ht="15.75">
       <c r="A38" s="98">
         <v>33</v>
       </c>
@@ -81082,7 +81113,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:143" ht="15">
+    <row r="39" spans="1:143" ht="15.75">
       <c r="A39" s="98">
         <v>34</v>
       </c>
@@ -81301,7 +81332,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:143" ht="15">
+    <row r="40" spans="1:143" ht="15.75">
       <c r="A40" s="98">
         <v>35</v>
       </c>
@@ -81491,7 +81522,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:143" ht="15">
+    <row r="41" spans="1:143" ht="15.75">
       <c r="A41" s="98">
         <v>36</v>
       </c>
@@ -81678,7 +81709,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:143" ht="15">
+    <row r="42" spans="1:143" ht="15.75">
       <c r="A42" s="98">
         <v>37</v>
       </c>
@@ -81891,7 +81922,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:143" ht="15">
+    <row r="43" spans="1:143" ht="15.75">
       <c r="A43" s="98">
         <v>38</v>
       </c>
@@ -82106,7 +82137,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:143" ht="15">
+    <row r="44" spans="1:143" ht="15.75">
       <c r="A44" s="98">
         <v>39</v>
       </c>
@@ -82304,7 +82335,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="45" spans="1:143" ht="15">
+    <row r="45" spans="1:143" ht="15.75">
       <c r="A45" s="98">
         <v>40</v>
       </c>
@@ -82494,7 +82525,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:143" ht="15">
+    <row r="46" spans="1:143" ht="15.75">
       <c r="A46" s="98">
         <v>41</v>
       </c>
@@ -82712,7 +82743,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:143" ht="15">
+    <row r="47" spans="1:143" ht="15.75">
       <c r="A47" s="98">
         <v>42</v>
       </c>
@@ -82926,7 +82957,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:143" ht="15">
+    <row r="48" spans="1:143" ht="15.75">
       <c r="A48" s="98">
         <v>43</v>
       </c>
@@ -83179,7 +83210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:142" ht="15">
+    <row r="49" spans="1:142" ht="15.75">
       <c r="A49" s="98">
         <v>44</v>
       </c>
@@ -83432,7 +83463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:142" ht="15">
+    <row r="50" spans="1:142" ht="15.75">
       <c r="A50" s="98">
         <v>45</v>
       </c>
@@ -83685,7 +83716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:142" ht="15">
+    <row r="51" spans="1:142" ht="15.75">
       <c r="A51" s="98">
         <v>46</v>
       </c>
@@ -83939,7 +83970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:142" ht="15">
+    <row r="52" spans="1:142" ht="15.75">
       <c r="A52" s="98">
         <v>47</v>
       </c>
@@ -84193,7 +84224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:142" ht="15">
+    <row r="53" spans="1:142" ht="15.75">
       <c r="A53" s="98">
         <v>48</v>
       </c>
@@ -84447,7 +84478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:142" ht="15">
+    <row r="54" spans="1:142" ht="15.75">
       <c r="A54" s="98">
         <v>49</v>
       </c>
@@ -84701,7 +84732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:142" ht="15">
+    <row r="55" spans="1:142" ht="15.75">
       <c r="A55" s="98">
         <v>50</v>
       </c>
@@ -84955,7 +84986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:142" ht="15">
+    <row r="56" spans="1:142" ht="15.75">
       <c r="A56" s="98">
         <v>51</v>
       </c>
@@ -85208,7 +85239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:142" ht="15">
+    <row r="57" spans="1:142" ht="15.75">
       <c r="A57" s="98">
         <v>52</v>
       </c>
@@ -85461,7 +85492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:142" ht="15">
+    <row r="58" spans="1:142" ht="15.75">
       <c r="A58" s="98">
         <v>53</v>
       </c>
@@ -85714,7 +85745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:142" ht="15">
+    <row r="59" spans="1:142" ht="15.75">
       <c r="A59" s="98">
         <v>54</v>
       </c>
@@ -85967,7 +85998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:142" ht="15">
+    <row r="60" spans="1:142" ht="15.75">
       <c r="A60" s="98">
         <v>55</v>
       </c>
@@ -86220,7 +86251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:142" ht="15">
+    <row r="61" spans="1:142" ht="15.75">
       <c r="A61" s="98">
         <v>56</v>
       </c>
@@ -86473,7 +86504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:142" ht="15">
+    <row r="62" spans="1:142" ht="15.75">
       <c r="A62" s="98">
         <v>57</v>
       </c>
@@ -86726,7 +86757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:142" ht="15">
+    <row r="63" spans="1:142" ht="15.75">
       <c r="A63" s="98">
         <v>58</v>
       </c>
@@ -86979,7 +87010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:142" ht="15">
+    <row r="64" spans="1:142" ht="15.75">
       <c r="A64" s="98">
         <v>59</v>
       </c>
@@ -87232,7 +87263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:142" ht="15">
+    <row r="65" spans="1:142" ht="15.75">
       <c r="A65" s="98">
         <v>60</v>
       </c>
@@ -87485,7 +87516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:142" ht="15">
+    <row r="66" spans="1:142" ht="15.75">
       <c r="A66" s="98">
         <v>61</v>
       </c>
@@ -87738,7 +87769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:142" ht="15">
+    <row r="67" spans="1:142" ht="15.75">
       <c r="A67" s="98">
         <v>62</v>
       </c>
@@ -87991,7 +88022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:142" ht="15">
+    <row r="68" spans="1:142" ht="15.75">
       <c r="A68" s="98">
         <v>63</v>
       </c>
@@ -88244,7 +88275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:142" ht="15">
+    <row r="69" spans="1:142" ht="15.75">
       <c r="A69" s="98">
         <v>64</v>
       </c>
@@ -88498,7 +88529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:142" ht="15">
+    <row r="70" spans="1:142" ht="15.75">
       <c r="A70" s="98">
         <v>65</v>
       </c>
@@ -88752,7 +88783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:142" ht="15">
+    <row r="71" spans="1:142" ht="15.75">
       <c r="A71" s="98">
         <v>66</v>
       </c>
@@ -89006,7 +89037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:142" ht="15">
+    <row r="72" spans="1:142" ht="15.75">
       <c r="A72" s="98">
         <v>67</v>
       </c>
@@ -89260,7 +89291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:142" ht="15">
+    <row r="73" spans="1:142" ht="15.75">
       <c r="A73" s="98">
         <v>68</v>
       </c>
@@ -89514,7 +89545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:142" ht="15">
+    <row r="74" spans="1:142" ht="15.75">
       <c r="A74" s="98">
         <v>69</v>
       </c>
@@ -89768,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:142" ht="15">
+    <row r="75" spans="1:142" ht="15.75">
       <c r="A75" s="98">
         <v>70</v>
       </c>
@@ -90022,7 +90053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:142" ht="15">
+    <row r="76" spans="1:142" ht="15.75">
       <c r="A76" s="98">
         <v>71</v>
       </c>
@@ -90276,7 +90307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:142" ht="15">
+    <row r="77" spans="1:142" ht="15.75">
       <c r="A77" s="98">
         <v>72</v>
       </c>
@@ -90529,7 +90560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:142" ht="15">
+    <row r="78" spans="1:142" ht="15.75">
       <c r="A78" s="98">
         <v>73</v>
       </c>
@@ -90782,7 +90813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:142" ht="15">
+    <row r="79" spans="1:142" ht="15.75">
       <c r="A79" s="98">
         <v>74</v>
       </c>
@@ -91035,7 +91066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:142" ht="15">
+    <row r="80" spans="1:142" ht="15.75">
       <c r="A80" s="98">
         <v>75</v>
       </c>
@@ -91288,7 +91319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:143" ht="15">
+    <row r="81" spans="1:143" ht="15.75">
       <c r="A81" s="98">
         <v>76</v>
       </c>
@@ -91541,7 +91572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:143" ht="15">
+    <row r="82" spans="1:143" ht="15.75">
       <c r="A82" s="98">
         <v>77</v>
       </c>
@@ -91794,7 +91825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:143" ht="15">
+    <row r="83" spans="1:143" ht="15.75">
       <c r="A83" s="98">
         <v>78</v>
       </c>
@@ -92047,7 +92078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:143" ht="15">
+    <row r="84" spans="1:143" ht="15.75">
       <c r="A84" s="98">
         <v>79</v>
       </c>
@@ -92306,7 +92337,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:143" ht="15">
+    <row r="85" spans="1:143" ht="15.75">
       <c r="A85" s="98">
         <v>80</v>
       </c>
@@ -92559,7 +92590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:143" ht="15">
+    <row r="86" spans="1:143" ht="15.75">
       <c r="A86" s="98">
         <v>81</v>
       </c>
@@ -92812,7 +92843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:143" ht="15">
+    <row r="87" spans="1:143" ht="15.75">
       <c r="A87" s="98">
         <v>82</v>
       </c>
@@ -93065,7 +93096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:143" s="132" customFormat="1" ht="15">
+    <row r="89" spans="1:143" s="132" customFormat="1">
       <c r="C89" s="132" t="s">
         <v>656</v>
       </c>
@@ -93611,7 +93642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:143" ht="15">
+    <row r="91" spans="1:143">
       <c r="C91" s="61" t="s">
         <v>272</v>
       </c>
@@ -93625,7 +93656,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="92" spans="1:143" ht="15">
+    <row r="92" spans="1:143">
       <c r="C92" s="61" t="s">
         <v>272</v>
       </c>
@@ -93639,7 +93670,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="93" spans="1:143" ht="15">
+    <row r="93" spans="1:143">
       <c r="C93" s="61" t="s">
         <v>629</v>
       </c>
@@ -93653,7 +93684,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="94" spans="1:143" ht="15">
+    <row r="94" spans="1:143">
       <c r="C94" s="39" t="s">
         <v>19</v>
       </c>
@@ -93667,7 +93698,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="95" spans="1:143" ht="15">
+    <row r="95" spans="1:143">
       <c r="C95" s="39" t="s">
         <v>635</v>
       </c>
@@ -93681,7 +93712,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="96" spans="1:143" ht="15">
+    <row r="96" spans="1:143">
       <c r="C96" s="39" t="s">
         <v>634</v>
       </c>
@@ -93695,7 +93726,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="15">
+    <row r="97" spans="3:8">
       <c r="C97" s="36" t="s">
         <v>251</v>
       </c>
@@ -93709,7 +93740,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="15">
+    <row r="98" spans="3:8">
       <c r="C98" s="36" t="s">
         <v>251</v>
       </c>
@@ -93723,7 +93754,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="15">
+    <row r="99" spans="3:8">
       <c r="C99" s="36" t="s">
         <v>251</v>
       </c>
@@ -93737,7 +93768,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="15">
+    <row r="100" spans="3:8">
       <c r="C100" s="61" t="s">
         <v>272</v>
       </c>
@@ -93751,7 +93782,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="15">
+    <row r="101" spans="3:8">
       <c r="C101" s="39" t="s">
         <v>21</v>
       </c>
@@ -93765,7 +93796,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="15">
+    <row r="102" spans="3:8">
       <c r="C102" s="61" t="s">
         <v>272</v>
       </c>
@@ -93779,7 +93810,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="15">
+    <row r="103" spans="3:8">
       <c r="C103" s="61" t="s">
         <v>272</v>
       </c>
@@ -93793,7 +93824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="15">
+    <row r="104" spans="3:8">
       <c r="C104" s="36" t="s">
         <v>251</v>
       </c>
@@ -93807,7 +93838,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="15">
+    <row r="105" spans="3:8">
       <c r="C105" s="61" t="s">
         <v>272</v>
       </c>
@@ -93821,7 +93852,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="15">
+    <row r="106" spans="3:8">
       <c r="C106" s="61" t="s">
         <v>272</v>
       </c>
@@ -93835,7 +93866,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="15">
+    <row r="107" spans="3:8">
       <c r="C107" s="62" t="s">
         <v>629</v>
       </c>
@@ -93849,7 +93880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="15">
+    <row r="108" spans="3:8">
       <c r="C108" s="61" t="s">
         <v>629</v>
       </c>
@@ -93863,7 +93894,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="15">
+    <row r="109" spans="3:8">
       <c r="C109" s="39" t="s">
         <v>18</v>
       </c>
@@ -93877,7 +93908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="15">
+    <row r="110" spans="3:8">
       <c r="C110" s="61" t="s">
         <v>629</v>
       </c>
@@ -93891,7 +93922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="15">
+    <row r="111" spans="3:8">
       <c r="C111" s="61" t="s">
         <v>630</v>
       </c>
@@ -93905,7 +93936,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="15">
+    <row r="112" spans="3:8">
       <c r="C112" s="61" t="s">
         <v>272</v>
       </c>
@@ -93919,7 +93950,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="15">
+    <row r="113" spans="3:8">
       <c r="C113" s="61" t="s">
         <v>631</v>
       </c>
@@ -93933,7 +93964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="15">
+    <row r="114" spans="3:8">
       <c r="C114" s="61" t="s">
         <v>629</v>
       </c>
@@ -93947,7 +93978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="15">
+    <row r="115" spans="3:8">
       <c r="C115" s="36" t="s">
         <v>251</v>
       </c>
@@ -93961,7 +93992,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="15">
+    <row r="116" spans="3:8">
       <c r="C116" s="61" t="s">
         <v>272</v>
       </c>
@@ -93975,7 +94006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="15">
+    <row r="117" spans="3:8">
       <c r="C117" s="61" t="s">
         <v>629</v>
       </c>
@@ -93989,7 +94020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="15">
+    <row r="118" spans="3:8">
       <c r="C118" s="36" t="s">
         <v>251</v>
       </c>
@@ -94003,7 +94034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="15">
+    <row r="119" spans="3:8">
       <c r="C119" s="61" t="s">
         <v>272</v>
       </c>
@@ -94017,7 +94048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="15">
+    <row r="120" spans="3:8">
       <c r="C120" s="61" t="s">
         <v>631</v>
       </c>
@@ -94031,7 +94062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="15">
+    <row r="121" spans="3:8">
       <c r="C121" s="61" t="s">
         <v>272</v>
       </c>
@@ -94045,7 +94076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="3:8" ht="15">
+    <row r="122" spans="3:8">
       <c r="C122" s="39" t="s">
         <v>9</v>
       </c>
@@ -94059,7 +94090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="15">
+    <row r="123" spans="3:8">
       <c r="C123" s="36" t="s">
         <v>251</v>
       </c>
@@ -94073,7 +94104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="15">
+    <row r="124" spans="3:8">
       <c r="C124" s="39" t="s">
         <v>15</v>
       </c>
@@ -94084,7 +94115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="15">
+    <row r="125" spans="3:8">
       <c r="C125" s="36" t="s">
         <v>251</v>
       </c>
@@ -94098,7 +94129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="15">
+    <row r="126" spans="3:8">
       <c r="C126" s="39" t="s">
         <v>67</v>
       </c>
@@ -94112,7 +94143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="15">
+    <row r="127" spans="3:8">
       <c r="C127" s="61" t="s">
         <v>629</v>
       </c>
@@ -94126,7 +94157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="15">
+    <row r="128" spans="3:8">
       <c r="C128" s="36" t="s">
         <v>251</v>
       </c>
@@ -94140,7 +94171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="15">
+    <row r="129" spans="3:8">
       <c r="C129" s="61" t="s">
         <v>272</v>
       </c>
@@ -94154,7 +94185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="15">
+    <row r="130" spans="3:8">
       <c r="C130" s="61" t="s">
         <v>272</v>
       </c>
@@ -94168,7 +94199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="15">
+    <row r="131" spans="3:8">
       <c r="C131" s="61" t="s">
         <v>272</v>
       </c>
@@ -94182,7 +94213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="15">
+    <row r="132" spans="3:8">
       <c r="C132" s="61" t="s">
         <v>629</v>
       </c>
@@ -94196,7 +94227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="15">
+    <row r="133" spans="3:8">
       <c r="C133" s="61" t="s">
         <v>272</v>
       </c>
@@ -94210,7 +94241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="15">
+    <row r="134" spans="3:8">
       <c r="C134" s="36" t="s">
         <v>251</v>
       </c>
@@ -94224,7 +94255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="15">
+    <row r="135" spans="3:8">
       <c r="C135" s="61" t="s">
         <v>630</v>
       </c>
@@ -94238,7 +94269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="15">
+    <row r="136" spans="3:8">
       <c r="C136" s="61" t="s">
         <v>631</v>
       </c>
@@ -94252,7 +94283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="15">
+    <row r="137" spans="3:8">
       <c r="C137" s="61" t="s">
         <v>629</v>
       </c>
@@ -94266,7 +94297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="15">
+    <row r="138" spans="3:8">
       <c r="C138" s="61" t="s">
         <v>630</v>
       </c>
@@ -94280,7 +94311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="15">
+    <row r="139" spans="3:8">
       <c r="C139" s="39" t="s">
         <v>636</v>
       </c>
@@ -94294,7 +94325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="15">
+    <row r="140" spans="3:8">
       <c r="C140" s="36" t="s">
         <v>251</v>
       </c>
@@ -94308,7 +94339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="15">
+    <row r="141" spans="3:8">
       <c r="C141" s="61" t="s">
         <v>629</v>
       </c>
@@ -94322,7 +94353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="15">
+    <row r="142" spans="3:8">
       <c r="C142" s="36" t="s">
         <v>251</v>
       </c>
@@ -94336,7 +94367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="15">
+    <row r="143" spans="3:8">
       <c r="C143" s="36" t="s">
         <v>251</v>
       </c>
@@ -94350,7 +94381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="15">
+    <row r="144" spans="3:8">
       <c r="C144" s="61" t="s">
         <v>629</v>
       </c>
@@ -94364,7 +94395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="15">
+    <row r="145" spans="3:8">
       <c r="C145" s="39" t="s">
         <v>636</v>
       </c>
@@ -94378,7 +94409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="15">
+    <row r="146" spans="3:8">
       <c r="C146" s="61" t="s">
         <v>629</v>
       </c>
@@ -94392,7 +94423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="15">
+    <row r="147" spans="3:8">
       <c r="C147" s="61" t="s">
         <v>630</v>
       </c>
@@ -94406,7 +94437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="15">
+    <row r="148" spans="3:8">
       <c r="C148" s="61" t="s">
         <v>272</v>
       </c>
@@ -94420,7 +94451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="15">
+    <row r="149" spans="3:8">
       <c r="C149" s="36" t="s">
         <v>251</v>
       </c>
@@ -94434,7 +94465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="15">
+    <row r="150" spans="3:8">
       <c r="C150" s="39" t="s">
         <v>637</v>
       </c>
@@ -94448,7 +94479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="15">
+    <row r="151" spans="3:8">
       <c r="C151" s="61" t="s">
         <v>630</v>
       </c>
@@ -94462,7 +94493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="15">
+    <row r="152" spans="3:8">
       <c r="C152" s="61" t="s">
         <v>630</v>
       </c>
@@ -94476,7 +94507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="15">
+    <row r="153" spans="3:8">
       <c r="C153" s="61" t="s">
         <v>630</v>
       </c>
@@ -94490,7 +94521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="15">
+    <row r="154" spans="3:8">
       <c r="C154" s="61" t="s">
         <v>630</v>
       </c>
@@ -94501,7 +94532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="15">
+    <row r="155" spans="3:8">
       <c r="C155" s="61" t="s">
         <v>631</v>
       </c>
@@ -94515,7 +94546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="15">
+    <row r="156" spans="3:8">
       <c r="C156" s="61" t="s">
         <v>272</v>
       </c>
@@ -94529,7 +94560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="15">
+    <row r="157" spans="3:8">
       <c r="C157" s="61" t="s">
         <v>272</v>
       </c>
@@ -94543,7 +94574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="15">
+    <row r="158" spans="3:8">
       <c r="C158" s="36" t="s">
         <v>251</v>
       </c>
@@ -94557,7 +94588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="15">
+    <row r="159" spans="3:8">
       <c r="C159" s="61" t="s">
         <v>629</v>
       </c>
@@ -94571,7 +94602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="15">
+    <row r="160" spans="3:8">
       <c r="C160" s="39" t="s">
         <v>15</v>
       </c>
@@ -94585,7 +94616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="15">
+    <row r="161" spans="3:8">
       <c r="C161" s="39" t="s">
         <v>282</v>
       </c>
@@ -94599,7 +94630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="15">
+    <row r="162" spans="3:8">
       <c r="C162" s="39" t="s">
         <v>20</v>
       </c>
@@ -94613,7 +94644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="3:8" ht="15">
+    <row r="163" spans="3:8">
       <c r="C163" s="61" t="s">
         <v>630</v>
       </c>
@@ -94627,7 +94658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="3:8" ht="15">
+    <row r="164" spans="3:8">
       <c r="C164" s="61" t="s">
         <v>630</v>
       </c>
@@ -94641,7 +94672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="3:8" ht="15">
+    <row r="165" spans="3:8">
       <c r="C165" s="61" t="s">
         <v>630</v>
       </c>
@@ -94655,7 +94686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="15">
+    <row r="166" spans="3:8">
       <c r="C166" s="61" t="s">
         <v>630</v>
       </c>
@@ -94669,7 +94700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="15">
+    <row r="167" spans="3:8">
       <c r="C167" s="61" t="s">
         <v>272</v>
       </c>
@@ -94683,7 +94714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="3:8" ht="15">
+    <row r="168" spans="3:8">
       <c r="C168" s="39" t="s">
         <v>67</v>
       </c>
@@ -94697,7 +94728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="3:8" ht="15">
+    <row r="169" spans="3:8">
       <c r="C169" s="36" t="s">
         <v>251</v>
       </c>
@@ -94711,7 +94742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="15">
+    <row r="170" spans="3:8">
       <c r="C170" s="61" t="s">
         <v>630</v>
       </c>
@@ -94725,7 +94756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="3:8" ht="15">
+    <row r="171" spans="3:8">
       <c r="C171" s="61" t="s">
         <v>631</v>
       </c>
@@ -94739,7 +94770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="3:8" ht="15">
+    <row r="172" spans="3:8">
       <c r="C172" s="62" t="s">
         <v>631</v>
       </c>
@@ -94753,7 +94784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="3:8" ht="15">
+    <row r="173" spans="3:8">
       <c r="C173" s="61" t="s">
         <v>629</v>
       </c>
@@ -94767,7 +94798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="3:8" ht="15">
+    <row r="174" spans="3:8">
       <c r="C174" s="61" t="s">
         <v>629</v>
       </c>
@@ -94781,7 +94812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="3:8" ht="15">
+    <row r="175" spans="3:8">
       <c r="C175" s="61" t="s">
         <v>629</v>
       </c>
@@ -94795,7 +94826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="3:8" ht="15">
+    <row r="176" spans="3:8">
       <c r="C176" s="61" t="s">
         <v>272</v>
       </c>
@@ -94809,7 +94840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="3:8" ht="15">
+    <row r="177" spans="3:8">
       <c r="C177" s="61" t="s">
         <v>272</v>
       </c>
@@ -94823,7 +94854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="3:8" ht="15">
+    <row r="178" spans="3:8">
       <c r="C178" s="61" t="s">
         <v>272</v>
       </c>
@@ -94837,7 +94868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="3:8" ht="15">
+    <row r="179" spans="3:8">
       <c r="C179" s="39" t="s">
         <v>282</v>
       </c>
@@ -94851,7 +94882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="3:8" ht="15">
+    <row r="180" spans="3:8">
       <c r="C180" s="36" t="s">
         <v>251</v>
       </c>
@@ -94865,7 +94896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="3:8" ht="15">
+    <row r="181" spans="3:8">
       <c r="C181" s="61" t="s">
         <v>629</v>
       </c>
@@ -94879,7 +94910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="3:8" ht="15">
+    <row r="182" spans="3:8">
       <c r="C182" s="61" t="s">
         <v>629</v>
       </c>
@@ -94893,7 +94924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="3:8" ht="15">
+    <row r="183" spans="3:8">
       <c r="C183" s="62" t="s">
         <v>632</v>
       </c>
@@ -94907,7 +94938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:8" ht="15">
+    <row r="184" spans="3:8">
       <c r="C184" s="61" t="s">
         <v>272</v>
       </c>
@@ -94921,7 +94952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="3:8" ht="15">
+    <row r="185" spans="3:8">
       <c r="C185" s="61" t="s">
         <v>272</v>
       </c>
@@ -94935,7 +94966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:8" ht="15">
+    <row r="186" spans="3:8">
       <c r="C186" s="61" t="s">
         <v>272</v>
       </c>
@@ -94949,7 +94980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="3:8" ht="15">
+    <row r="187" spans="3:8">
       <c r="C187" s="39" t="s">
         <v>67</v>
       </c>
@@ -94963,7 +94994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="3:8" ht="15">
+    <row r="188" spans="3:8">
       <c r="C188" s="39" t="s">
         <v>636</v>
       </c>
@@ -94977,7 +95008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="3:8" ht="15">
+    <row r="189" spans="3:8">
       <c r="C189" s="36" t="s">
         <v>251</v>
       </c>
@@ -94991,7 +95022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="3:8" ht="15">
+    <row r="190" spans="3:8">
       <c r="C190" s="36" t="s">
         <v>251</v>
       </c>
@@ -95005,7 +95036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="3:8" ht="15">
+    <row r="191" spans="3:8">
       <c r="C191" s="61" t="s">
         <v>629</v>
       </c>
@@ -95019,7 +95050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="3:8" ht="15">
+    <row r="192" spans="3:8">
       <c r="C192" s="61" t="s">
         <v>629</v>
       </c>
@@ -95033,7 +95064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="3:8" ht="15">
+    <row r="193" spans="3:8">
       <c r="C193" s="61" t="s">
         <v>630</v>
       </c>
@@ -95047,7 +95078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="3:8" ht="15">
+    <row r="194" spans="3:8">
       <c r="C194" s="61" t="s">
         <v>631</v>
       </c>
@@ -95061,7 +95092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="3:8" ht="15">
+    <row r="195" spans="3:8">
       <c r="C195" s="61" t="s">
         <v>631</v>
       </c>
@@ -95075,7 +95106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="3:8" ht="15">
+    <row r="196" spans="3:8">
       <c r="C196" s="61" t="s">
         <v>631</v>
       </c>
@@ -95086,7 +95117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="3:8" ht="15">
+    <row r="197" spans="3:8">
       <c r="C197" s="61" t="s">
         <v>631</v>
       </c>
@@ -95100,7 +95131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="3:8" ht="15">
+    <row r="198" spans="3:8">
       <c r="C198" s="61" t="s">
         <v>272</v>
       </c>
@@ -95114,7 +95145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="3:8" ht="15">
+    <row r="199" spans="3:8">
       <c r="C199" s="61" t="s">
         <v>272</v>
       </c>
@@ -95128,7 +95159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="3:8" ht="15">
+    <row r="200" spans="3:8">
       <c r="C200" s="61" t="s">
         <v>272</v>
       </c>
@@ -95142,7 +95173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="3:8" ht="15">
+    <row r="201" spans="3:8">
       <c r="C201" s="61" t="s">
         <v>272</v>
       </c>
@@ -95156,7 +95187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="3:8" ht="15">
+    <row r="202" spans="3:8">
       <c r="C202" s="39" t="s">
         <v>67</v>
       </c>
@@ -95170,7 +95201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="3:8" ht="15">
+    <row r="203" spans="3:8">
       <c r="C203" s="39" t="s">
         <v>67</v>
       </c>
@@ -95184,7 +95215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="3:8" ht="15">
+    <row r="204" spans="3:8">
       <c r="C204" s="39" t="s">
         <v>15</v>
       </c>
@@ -95195,7 +95226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="3:8" ht="15">
+    <row r="205" spans="3:8">
       <c r="C205" s="36" t="s">
         <v>251</v>
       </c>
@@ -95209,7 +95240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="3:8" ht="15">
+    <row r="206" spans="3:8">
       <c r="C206" s="36" t="s">
         <v>251</v>
       </c>
@@ -95223,7 +95254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="3:8" ht="15">
+    <row r="207" spans="3:8">
       <c r="C207" s="61" t="s">
         <v>629</v>
       </c>
@@ -95237,7 +95268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="3:8" ht="15">
+    <row r="208" spans="3:8">
       <c r="C208" s="61" t="s">
         <v>629</v>
       </c>
@@ -95251,7 +95282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:8" ht="15">
+    <row r="209" spans="3:8">
       <c r="C209" s="61" t="s">
         <v>629</v>
       </c>
@@ -95265,7 +95296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="3:8" ht="15">
+    <row r="210" spans="3:8">
       <c r="C210" s="61" t="s">
         <v>629</v>
       </c>
@@ -95279,7 +95310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="3:8" ht="15">
+    <row r="211" spans="3:8">
       <c r="C211" s="61" t="s">
         <v>630</v>
       </c>
@@ -95293,7 +95324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:8" ht="15">
+    <row r="212" spans="3:8">
       <c r="C212" s="61" t="s">
         <v>630</v>
       </c>
@@ -95307,7 +95338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="3:8" ht="15">
+    <row r="213" spans="3:8">
       <c r="C213" s="61" t="s">
         <v>630</v>
       </c>
@@ -95321,7 +95352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="3:8" ht="15">
+    <row r="214" spans="3:8">
       <c r="C214" s="62" t="s">
         <v>630</v>
       </c>
@@ -95335,7 +95366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="3:8" ht="15">
+    <row r="215" spans="3:8">
       <c r="C215" s="61" t="s">
         <v>631</v>
       </c>
@@ -95349,7 +95380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="3:8" ht="15">
+    <row r="216" spans="3:8">
       <c r="C216" s="61" t="s">
         <v>631</v>
       </c>
@@ -95363,7 +95394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:8" ht="15">
+    <row r="217" spans="3:8">
       <c r="C217" s="61" t="s">
         <v>631</v>
       </c>
@@ -95377,7 +95408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="3:8" ht="15">
+    <row r="218" spans="3:8">
       <c r="C218" s="61" t="s">
         <v>633</v>
       </c>
@@ -95391,7 +95422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="3:8" ht="15">
+    <row r="219" spans="3:8">
       <c r="C219" s="39" t="s">
         <v>15</v>
       </c>
@@ -95405,7 +95436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="3:8" ht="15">
+    <row r="220" spans="3:8">
       <c r="C220" s="39" t="s">
         <v>636</v>
       </c>
@@ -95419,7 +95450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="3:8" ht="15">
+    <row r="221" spans="3:8">
       <c r="C221" s="39" t="s">
         <v>283</v>
       </c>
@@ -95430,7 +95461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="3:8" ht="15">
+    <row r="222" spans="3:8">
       <c r="C222" s="39" t="s">
         <v>20</v>
       </c>
@@ -95444,7 +95475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="3:8" ht="15">
+    <row r="223" spans="3:8">
       <c r="C223" s="36" t="s">
         <v>251</v>
       </c>
@@ -95458,7 +95489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:8" ht="15">
+    <row r="224" spans="3:8">
       <c r="C224" s="61" t="s">
         <v>630</v>
       </c>
@@ -95472,7 +95503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:8" ht="15">
+    <row r="225" spans="3:8">
       <c r="C225" s="61" t="s">
         <v>630</v>
       </c>
@@ -95486,7 +95517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:8" ht="15">
+    <row r="226" spans="3:8">
       <c r="C226" s="122" t="s">
         <v>250</v>
       </c>
@@ -95498,7 +95529,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C91:H226">
+  <sortState ref="C91:H226">
     <sortCondition descending="1" ref="H91:H226"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
